--- a/biology/Zoologie/Colorpoint_shorthair/Colorpoint_shorthair.xlsx
+++ b/biology/Zoologie/Colorpoint_shorthair/Colorpoint_shorthair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le colorpoint shorthair est une race de chat originaire de Thaïlande. Ce chat de taille moyenne est caractérisé par sa robe colorpoint et ses yeux bleus.
@@ -513,7 +525,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les origines du colorpoint shorthair sont les mêmes que celles du siamois puisqu'il s'agit de la même race.
 La race descendrait des chats sacrés des temples du Siam. On pense qu'ils étaient précieusement défendus et élevés par les rois du Siam et l'on a retrouvé des manuscrits datant de 1350 mentionnant ces chats aux extrémités colorées.
@@ -549,7 +563,9 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La silhouette du colorpoint shorthair est longue et svelte, les pattes longues et fines mais en restant proportionnées aux corps. Les pattes postérieurs sont légèrement plus hautes que les antérieurs et les pieds sont ovales. La queue est longue et fine.
 La tête est de taille moyenne de forme triangulaire et bien proportionnée avec le reste du corps. Le museau est fin et le nez long et droit. Les yeux sont toujours de couleur bleue, espacés de maximum une largeur d'œil. Ils sont en forme d'amande. Les oreilles sont larges à la base, pointues et en harmonie avec les traits de la tête. Elles sont moins grandes que chez les siamois actuels.
@@ -584,7 +600,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup de chats orientaux, le colorpoint shorthair serait très attaché à son propriétaire, qualifié de "chat-chien". Il serait aussi bavard, extraverti, vif et demanderait de l'attention. C'est un chat qui n'aimerait pas la solitude. Ces traits de caractère restent toutefois parfaitement individuels et sont fonction de l'histoire de chaque chat.
 </t>
